--- a/Planning/Planning (29-11-16).xlsx
+++ b/Planning/Planning (29-11-16).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xepho\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Week 1</t>
   </si>
@@ -92,9 +87,6 @@
     <t>Week 11 [DEADLINE]</t>
   </si>
   <si>
-    <t>en afmaken [-]</t>
-  </si>
-  <si>
     <t>Bedrijfsplan af [-]</t>
   </si>
   <si>
@@ -132,12 +124,18 @@
   </si>
   <si>
     <t>NOTE: Iedereen moet individueel een logo maken, dat houd ook in voor wapen, terrein, script en stijlblad!</t>
+  </si>
+  <si>
+    <t>en afmaken [X]</t>
+  </si>
+  <si>
+    <t>Naam [X]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,26 +364,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,23 +399,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -614,18 +578,18 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="9" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -674,10 +638,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>10</v>
@@ -689,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>21</v>
@@ -709,13 +673,13 @@
         <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>20</v>
@@ -723,7 +687,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="4"/>
     </row>
@@ -736,11 +700,11 @@
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -751,9 +715,11 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -771,10 +737,10 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -785,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -808,7 +774,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -820,7 +786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
